--- a/medicine/Enfance/Maxime_Fontaine/Maxime_Fontaine.xlsx
+++ b/medicine/Enfance/Maxime_Fontaine/Maxime_Fontaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maxime Fontaine, né le 9 mars 1975[2] à Seclin dans le département du Nord, est un romancier, scénariste et dessinateur blogueur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maxime Fontaine, né le 9 mars 1975 à Seclin dans le département du Nord, est un romancier, scénariste et dessinateur blogueur français.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Arras, puis au Lycée Fénelon de Paris, il s’installe à Béthune, où il débute ses activités créatives.
-Avec Bertrand Ferrier, il publie Le Cycle d'Ézoah, leur première trilogie, chez Intervista, dans la collection « Cinemascope », qui s'est vendue à 20 000 exemplaires[3].
-Après le thriller historique Mes vies à l'envers, qui traite de réincarnation, il invente en 2019 la série fantastico-policière "Les 100 visages de Soryan Nesh", où l'on voit un enquêteur Indien volubile et mystérieux incarner tour à tour différents personnages de la littérature classique, de Cyrano de Bergerac à Sherlock Holmes, en passant par Barbe Noire ou Dracula[4].
+Avec Bertrand Ferrier, il publie Le Cycle d'Ézoah, leur première trilogie, chez Intervista, dans la collection « Cinemascope », qui s'est vendue à 20 000 exemplaires.
+Après le thriller historique Mes vies à l'envers, qui traite de réincarnation, il invente en 2019 la série fantastico-policière "Les 100 visages de Soryan Nesh", où l'on voit un enquêteur Indien volubile et mystérieux incarner tour à tour différents personnages de la littérature classique, de Cyrano de Bergerac à Sherlock Holmes, en passant par Barbe Noire ou Dracula.
 En 2021, chez Gulf Stream éditeur, il commence la publication de Sorciers, trilogie fantasy à la chronologie complexe, transcription du jeu de rôle du même nom, inventé dans les années 1990 par son frère, l'auteur-compositeur-interprète Romain Watson. Anne-Clotilde Jammes, artiste lyonnaise, réalise les arcanes de tarots intégrés à chaque ouvrage. La trilogie, influencée par Alice au pays des merveilles de Lewis Carroll, Twin Peaks de David Lynch ou L'Homme qui rit de Victor Hugo, suit les aventures d'Ernest Villempré (prestidigiteur), sa fille Déa (âme réincarnée) et Kétinée Mountabila (envoûteuse vaudou), lorsqu'ils traversent différents mondes sorciers, à la recherche d'enfants disparus.
 Depuis, Maxime multiplie les projets et les collaborations : « Pixel Planète », illustré par Anna Cattish aux éditions Auzou, « Lizy Vaudou » aux éditions Jungle sur des dessins de Robin Guillet, « Chance et Celsius » avec l'écrivaine Sophie Noël et l’illustratrice Yllya, ou encore « Enquête de haute Voltige » chez Poulpe Fiction, en compagnie d'Anne-Marie Desplat-Duc.
 Depuis 2023, il marche sur les traces d'Alexandre Dumas en réalisant deux projets centrés sur le personnage de Milady de Winter : la novélisation du film Les Trois Mousquetaires : Milady de Martin Bourboulon, et une trilogie de cosy mystery conçue avec Bertrand Puard : « les Enquêtes de Milady », au Fleuve Noir.
-Maxime Fontaine est professeur des écoles et  dessinateur du blog de Bande dessinée « Chroniques d’une famille recomposée »[5].
+Maxime Fontaine est professeur des écoles et  dessinateur du blog de Bande dessinée « Chroniques d’une famille recomposée ».
 </t>
         </is>
       </c>
@@ -550,11 +564,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série "Les Enquêtes de Milady" / Maxime Fontaine et Bertrand Puard
-Le Baiser de la Tulipe noire. Paris : Fleuve éditions, 11/2023, 301 p.  (ISBN 978-2-265-15783-5)
-Romans jeunesse
-Mes vies à l'envers. Nantes : Gulf Stream, coll. "Echos", 05/2018, 347 p.  (ISBN 978-2-35488-612-7)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série "Les Enquêtes de Milady" / Maxime Fontaine et Bertrand Puard
+Le Baiser de la Tulipe noire. Paris : Fleuve éditions, 11/2023, 301 p.  (ISBN 978-2-265-15783-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maxime_Fontaine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxime_Fontaine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mes vies à l'envers. Nantes : Gulf Stream, coll. "Echos", 05/2018, 347 p.  (ISBN 978-2-35488-612-7)
 Le Trio met le turbo / texte Sophie Noël, Maxime Fontaine ; ill. Yllya. Nantes : Gulf Stream, coll. "Romangas", 08/2022, 93 p.  (ISBN 978-2-38349-010-4)
 Enquête de haute voltige / texte Anne-Marie Desplat-Duc, Maxime Fontaine ; ill. Thuy-An Buis. Paris : Poulpe fictions, 03/2023, 189 p.  (ISBN 978-2-37742-311-8)
 Série "Les Gardiens de Mallemonde, le cycle d'Ézoah" / Bertrand Ferrier, Maxime Fontaine
@@ -581,9 +634,43 @@
 L'Émeraude du temps. Paris : Gulf Stream, 08/2023, 586 p.  (ISBN 978-2-38349-130-9)
 Série "Les Trois Mousquetaires" / scénario Matthieu Delaporte et Alexandre de la Patellière d'après Alexandre Dumas
 D'Artagnan / novélisation Christine Féret-Fleury. Paris : Flammarion-Jeunesse, 03/2023, 235 p.  (ISBN 978-2-0804-1649-0)
-Milady / novélisation Maxime Fontaine. Paris : Flammarion-Jeunesse, 11/2023, 237 p.  (ISBN 978-2-08-041650-6)
-Bandes dessinées
-Lizy Vaudou : le fragment d'âme / scénario Maxime Fontaine ; dessin Robin Guillet. Paris : Jungle, 02/2023, 48 p.  (ISBN 978-2-8222-3666-9)
+Milady / novélisation Maxime Fontaine. Paris : Flammarion-Jeunesse, 11/2023, 237 p.  (ISBN 978-2-08-041650-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maxime_Fontaine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxime_Fontaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lizy Vaudou : le fragment d'âme / scénario Maxime Fontaine ; dessin Robin Guillet. Paris : Jungle, 02/2023, 48 p.  (ISBN 978-2-8222-3666-9)
 L'Étrange Bureau des injustices / scénario Maxime Fontaine ; dessin Yllya. Paris : Jungle, 03/2024, 48 p.  (ISBN 978-2-8222-4134-2)</t>
         </is>
       </c>
